--- a/Submissions/Submission 1/Supplementary Materials/master_lighting_data.xlsx
+++ b/Submissions/Submission 1/Supplementary Materials/master_lighting_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Supplementary Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/Submission 1/Supplementary Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6FF39E-D6F2-4D18-8FEB-1C9DAFDE1165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E68869-9425-554C-8EEC-6E2E09A5C75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="642" xr2:uid="{64D75931-346C-4638-8F9E-A211D2C200A3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" tabRatio="642" xr2:uid="{64D75931-346C-4638-8F9E-A211D2C200A3}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Data type</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>This excel workbook is a blank template for use with the R code also supplied in the Supplementary Materials. It will allow for the user to reproduce the results found in this paper for any combination of lamp and weighting function, with data supplied by the user. Data for the weighting functions and lamps used in this study can be found in the sources provided in the data_wf and data_lamp sheets.</t>
+  </si>
+  <si>
+    <t>for the paper</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>Matthew Kuperus Heun, Zeke Marshall, Emmanuel Aramendia, and Paul E. Brockway</t>
+  </si>
+  <si>
+    <t>submitted to</t>
+  </si>
+  <si>
+    <t>Energies</t>
   </si>
 </sst>
 </file>
@@ -438,15 +453,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,10 +478,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,137 +777,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFAB5D4-3488-49ED-96A2-D11B459B0BF9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="116.33203125" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="8"/>
+    <col min="2" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="11" spans="1:1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -904,8 +878,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -913,7 +887,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -922,8 +896,10 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -931,8 +907,8 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -940,7 +916,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -949,12 +925,75 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -969,18 +1008,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="131.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="131.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,8 +1042,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
@@ -1020,8 +1059,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
@@ -1033,11 +1072,11 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -1049,15 +1088,15 @@
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
@@ -1069,7 +1108,7 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G5" t="s">
@@ -1093,13 +1132,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1120,12 +1159,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="23.88671875" customWidth="1"/>
+    <col min="1" max="9" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1203,7 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>2013</v>
       </c>
       <c r="E2" s="6">
@@ -1177,15 +1216,15 @@
         <f t="shared" ref="G2:G5" si="0">E2*F2</f>
         <v>846</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f t="shared" ref="H2:H5" si="1">(E2/683)*100</f>
         <v>2.0644216691068813</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1195,7 +1234,7 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2012</v>
       </c>
       <c r="E3" s="6">
@@ -1208,15 +1247,15 @@
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f t="shared" si="1"/>
         <v>1.6105417276720351</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1265,7 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2014</v>
       </c>
       <c r="E4" s="6">
@@ -1239,15 +1278,15 @@
         <f t="shared" si="0"/>
         <v>949.5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f t="shared" si="1"/>
         <v>9.2679355783308921</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1257,7 +1296,7 @@
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>2013</v>
       </c>
       <c r="E5" s="6">
@@ -1270,11 +1309,11 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f t="shared" si="1"/>
         <v>10.248901903367496</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1297,13 +1336,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>

--- a/Submissions/Submission 1/Supplementary Materials/master_lighting_data.xlsx
+++ b/Submissions/Submission 1/Supplementary Materials/master_lighting_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/Submission 1/Supplementary Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Submissions\Submission 1\Supplementary Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E68869-9425-554C-8EEC-6E2E09A5C75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC48F0-C20D-4A83-94F0-A956DBAFC016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" tabRatio="642" xr2:uid="{64D75931-346C-4638-8F9E-A211D2C200A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="642" xr2:uid="{64D75931-346C-4638-8F9E-A211D2C200A3}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>Visible spectrum (380-760nm)</t>
   </si>
   <si>
-    <t>This excel workbook is a blank template for use with the R code also supplied in the Supplementary Materials. It will allow for the user to reproduce the results found in this paper for any combination of lamp and weighting function, with data supplied by the user. Data for the weighting functions and lamps used in this study can be found in the sources provided in the data_wf and data_lamp sheets.</t>
-  </si>
-  <si>
     <t>for the paper</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Energies</t>
+  </si>
+  <si>
+    <t>This excel workbook is a blank template for use with the R code also supplied in the Supplementary Materials. It will allow for the user to reproduce the results found in this paper for any combination of lamp and weighting function, with data supplied by the user. Data for the weighting functions and lamps used in this study can be found in the sources provided in the data_wf and data_lamp sheets. This data was not provided here as is was obtained from open-source datasets produced by other researchers.</t>
   </si>
 </sst>
 </file>
@@ -780,94 +780,94 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="116.33203125" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="8"/>
+    <col min="2" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -887,7 +887,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -896,7 +896,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>26</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -916,7 +916,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -925,7 +925,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -934,7 +934,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -943,7 +943,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -952,7 +952,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -961,7 +961,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -970,7 +970,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -979,7 +979,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1008,18 +1008,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="131.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="131.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -1132,13 +1132,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1159,12 +1159,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="23.83203125" customWidth="1"/>
+    <col min="1" max="9" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1336,13 +1336,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
